--- a/data/shift_application.xlsx
+++ b/data/shift_application.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,15 +498,28 @@
           <t>cancelrequest</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>admin_action_time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp_str</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>adminUpdateTimestamp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>46022.05764430555</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2301451</t>
-        </is>
+      <c r="B2" t="n">
+        <v>2301451</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -521,7 +531,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>46027</v>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,23 +551,44 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L2" t="n">
         <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-12-31 13:51:58</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-12-31 01:23:00.468000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2025-12-31 15:21:41</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>46022.08660452547</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2301451</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2301451</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -569,7 +600,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F3" t="inlineStr">
@@ -589,23 +620,40 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2025-12-31 13:49:50</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-12-31 02:04:42.631000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2025-12-31 15:20:41</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>46022.08663667824</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2301451</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2301451</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -617,7 +665,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F4" t="inlineStr">
@@ -637,23 +685,40 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>cancel</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>cancel</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-12-31 13:27:46</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-12-31 02:04:45.409000</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2025-12-31 15:20:13</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>46022.10623591435</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2402008</t>
-        </is>
+      <c r="B5" t="n">
+        <v>2402008</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -665,7 +730,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F5" t="inlineStr">
@@ -688,20 +753,33 @@
           <t>pending</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>0</v>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2025-12-31 12:39:32</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-12-31 02:32:58.783000</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>46022.10631236111</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2402008</t>
-        </is>
+      <c r="B6" t="n">
+        <v>2402008</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -713,7 +791,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="F6" t="inlineStr">
@@ -741,15 +819,20 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-12-31 02:33:05.388000</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>46022.10634217592</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2402008</t>
-        </is>
+      <c r="B7" t="n">
+        <v>2402008</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -761,7 +844,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F7" t="inlineStr">
@@ -789,15 +872,20 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-12-31 02:33:07.964000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>46022.1063863426</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2402008</t>
-        </is>
+      <c r="B8" t="n">
+        <v>2402008</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -809,7 +897,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F8" t="inlineStr">
@@ -837,15 +925,20 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-12-31 02:33:11.780000</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46022.10650219002</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2402008</t>
-        </is>
+        <v>46022.1065021875</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2402008</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -857,7 +950,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F9" t="inlineStr">
@@ -885,6 +978,384 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-12-31 02:33:21.789000</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>46022.43342361111</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2401910</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PNG SWEE HIANG PNG</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L4</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:24:07.800000</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>46022.43348292824</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2401910</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PNG SWEE HIANG PNG</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L4</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:24:12.925000</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>46022.43353105324</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2401910</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PNG SWEE HIANG PNG</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L4</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:24:17.083000</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>46022.43360030092</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2401910</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PNG SWEE HIANG PNG</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L4</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:24:23.066000</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>46022.43367887731</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2401910</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PNG SWEE HIANG PNG</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:24:29.855000</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>46022.43377182871</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2401910</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PNG SWEE HIANG PNG</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L4</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:24:37.886000</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>46022.43382356482</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2401910</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PNG SWEE HIANG PNG</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>L4</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-12-31 10:24:42.356000</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/shift_application.xlsx
+++ b/data/shift_application.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-12-31 15:21:41</t>
+          <t>2025-12-31 16:09:27</t>
         </is>
       </c>
     </row>
@@ -620,12 +620,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>cancel</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>cancel</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-12-31 15:20:41</t>
+          <t>2025-12-31 16:09:12</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>approved</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>cancel</t>
+          <t>approved</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -709,7 +709,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-12-31 15:20:13</t>
+          <t>2025-12-31 16:09:23</t>
         </is>
       </c>
     </row>

--- a/data/shift_application.xlsx
+++ b/data/shift_application.xlsx
@@ -1,93 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\POD_StudentTalent\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B4F9AF-1624-43DD-A953-B3B3FF3574E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="890" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>shiftperiod</t>
-  </si>
-  <si>
-    <t>shiftlevel</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>admindecision</t>
-  </si>
-  <si>
-    <t>adminremarks</t>
-  </si>
-  <si>
-    <t>cancelrequest</t>
-  </si>
-  <si>
-    <t>admin_action_time</t>
-  </si>
-  <si>
-    <t>timestamp_str</t>
-  </si>
-  <si>
-    <t>adminUpdateTimestamp</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -102,43 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,60 +424,295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>shiftperiod</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>shiftlevel</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>admindecision</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>adminremarks</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cancelrequest</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>admin_action_time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp_str</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>adminupdatetimestamp</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>adminUpdateTimestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>46023.45640476852</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2026-01-01 23:45:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>46023.4564178125</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>rejected</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>rejected</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2026-01-01 23:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>46023.45642799768</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>night</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2026-01-01 23:37:57</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/shift_application.xlsx
+++ b/data/shift_application.xlsx
@@ -630,11 +630,7 @@
           <t>rejected</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -698,7 +694,11 @@
           <t>pending</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2026-01-01 23:37:57</t>
+          <t>2026-01-02 00:08:28</t>
         </is>
       </c>
     </row>

--- a/data/shift_application.xlsx
+++ b/data/shift_application.xlsx
@@ -558,12 +558,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -579,7 +579,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2026-01-01 23:45:39</t>
+          <t>2026-01-02 01:55:20</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,11 @@
           <t>rejected</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -643,7 +647,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2026-01-01 23:45:46</t>
+          <t>2026-01-02 01:55:24</t>
         </is>
       </c>
     </row>
@@ -686,19 +690,15 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>approved</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2026-01-02 00:08:28</t>
+          <t>2026-01-02 01:34:11</t>
         </is>
       </c>
     </row>

--- a/data/shift_application.xlsx
+++ b/data/shift_application.xlsx
@@ -558,15 +558,19 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>approved</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -579,7 +583,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2026-01-02 01:55:20</t>
+          <t>2026-01-02 09:26:51</t>
         </is>
       </c>
     </row>
@@ -630,11 +634,7 @@
           <t>rejected</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>0</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2026-01-02 01:34:11</t>
+          <t>2026-01-02 09:02:37</t>
         </is>
       </c>
     </row>

--- a/data/shift_application.xlsx
+++ b/data/shift_application.xlsx
@@ -9088,17 +9088,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2026-01-02 17:22:43</t>
+          <t>2026-01-02 22:36:20</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2301451</t>
+          <t>2503832</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>WANG CONGYING WANG</t>
+          <t>WONG HUI SHAN</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -9107,7 +9107,7 @@
         </is>
       </c>
       <c r="E170" s="3" t="n">
-        <v>46028</v>
+        <v>46035</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2026-01-02 17:22:45</t>
+          <t>2026-01-02 22:36:45</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -9160,7 +9160,7 @@
         </is>
       </c>
       <c r="E171" s="3" t="n">
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Afternoon</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -9194,17 +9194,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2026-01-02 17:23:03</t>
+          <t>2026-01-02 22:36:46</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2402008</t>
+          <t>2301451</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CHONG QINYI SHERMAINE</t>
+          <t>WANG CONGYING WANG</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -9213,16 +9213,16 @@
         </is>
       </c>
       <c r="E172" s="3" t="n">
-        <v>46028</v>
+        <v>46043</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Afternoon</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -9247,17 +9247,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-01-02 17:23:05</t>
+          <t>2026-01-02 22:36:48</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2402008</t>
+          <t>2301451</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CHONG QINYI SHERMAINE</t>
+          <t>WANG CONGYING WANG</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -9265,19 +9265,17 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
+      <c r="E173" s="3" t="n">
+        <v>46050</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Afternoon</t>
+          <t>Night</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">

--- a/data/shift_application.xlsx
+++ b/data/shift_application.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O173"/>
+  <dimension ref="A1:P173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +513,11 @@
           <t>adminupdatetimestamp</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>adminupdatetimestamp.1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -536,7 +538,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F2" t="inlineStr">
@@ -556,17 +558,30 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:56:18</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -587,7 +602,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="F3" t="inlineStr">
@@ -616,8 +631,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,7 +658,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F4" t="inlineStr">
@@ -667,8 +687,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -689,7 +714,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F5" t="inlineStr">
@@ -718,8 +743,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -740,7 +770,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F6" t="inlineStr">
@@ -769,8 +799,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -791,7 +826,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>46028</v>
       </c>
       <c r="F7" t="inlineStr">
@@ -820,8 +855,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -842,7 +882,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F8" t="inlineStr">
@@ -871,8 +911,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -893,7 +938,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F9" t="inlineStr">
@@ -913,17 +958,30 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:01:30</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -944,7 +1002,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="F10" t="inlineStr">
@@ -973,8 +1031,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -995,7 +1058,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="F11" t="inlineStr">
@@ -1015,17 +1078,30 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:05:44</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1046,7 +1122,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="2" t="n">
         <v>46044</v>
       </c>
       <c r="F12" t="inlineStr">
@@ -1066,17 +1142,30 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:08:26</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1097,7 +1186,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="2" t="n">
         <v>46051</v>
       </c>
       <c r="F13" t="inlineStr">
@@ -1117,17 +1206,30 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:13:01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1148,7 +1250,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>46027</v>
       </c>
       <c r="F14" t="inlineStr">
@@ -1177,8 +1279,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1199,7 +1306,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="2" t="n">
         <v>46028</v>
       </c>
       <c r="F15" t="inlineStr">
@@ -1219,17 +1326,30 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:49</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1250,7 +1370,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F16" t="inlineStr">
@@ -1279,8 +1399,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1301,7 +1426,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F17" t="inlineStr">
@@ -1330,8 +1455,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1352,7 +1482,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="F18" t="inlineStr">
@@ -1381,8 +1511,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1403,7 +1538,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" s="2" t="n">
         <v>46041</v>
       </c>
       <c r="F19" t="inlineStr">
@@ -1432,8 +1567,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1454,7 +1594,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F20" t="inlineStr">
@@ -1483,8 +1623,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1505,7 +1650,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="F21" t="inlineStr">
@@ -1534,8 +1679,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1556,7 +1706,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" s="2" t="n">
         <v>46044</v>
       </c>
       <c r="F22" t="inlineStr">
@@ -1585,8 +1735,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1607,7 +1762,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F23" t="inlineStr">
@@ -1636,8 +1791,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1658,7 +1818,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="2" t="n">
         <v>46051</v>
       </c>
       <c r="F24" t="inlineStr">
@@ -1687,8 +1847,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1709,7 +1874,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F25" t="inlineStr">
@@ -1738,8 +1903,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1760,7 +1930,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F26" t="inlineStr">
@@ -1789,8 +1959,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1811,7 +1986,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F27" t="inlineStr">
@@ -1840,8 +2015,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1862,7 +2042,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F28" t="inlineStr">
@@ -1891,8 +2071,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1913,7 +2098,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="F29" t="inlineStr">
@@ -1933,17 +2118,30 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:03:34</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1964,7 +2162,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F30" t="inlineStr">
@@ -1993,8 +2191,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2015,7 +2218,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F31" t="inlineStr">
@@ -2044,8 +2247,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2066,7 +2274,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F32" t="inlineStr">
@@ -2095,8 +2303,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2117,7 +2330,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E33" s="3" t="n">
+      <c r="E33" s="2" t="n">
         <v>46028</v>
       </c>
       <c r="F33" t="inlineStr">
@@ -2146,8 +2359,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,7 +2386,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="2" t="n">
         <v>46048</v>
       </c>
       <c r="F34" t="inlineStr">
@@ -2197,8 +2415,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2219,7 +2442,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="F35" t="inlineStr">
@@ -2248,8 +2471,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2270,7 +2498,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E36" s="3" t="n">
+      <c r="E36" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="F36" t="inlineStr">
@@ -2299,8 +2527,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2321,7 +2554,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E37" s="3" t="n">
+      <c r="E37" s="2" t="n">
         <v>46042</v>
       </c>
       <c r="F37" t="inlineStr">
@@ -2350,8 +2583,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2372,7 +2610,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E38" s="3" t="n">
+      <c r="E38" s="2" t="n">
         <v>46049</v>
       </c>
       <c r="F38" t="inlineStr">
@@ -2392,17 +2630,30 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:10:41</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2423,7 +2674,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E39" s="3" t="n">
+      <c r="E39" s="2" t="n">
         <v>46038</v>
       </c>
       <c r="F39" t="inlineStr">
@@ -2452,8 +2703,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2474,7 +2730,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E40" s="3" t="n">
+      <c r="E40" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F40" t="inlineStr">
@@ -2503,8 +2759,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2525,7 +2786,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E41" s="3" t="n">
+      <c r="E41" s="2" t="n">
         <v>46045</v>
       </c>
       <c r="F41" t="inlineStr">
@@ -2545,17 +2806,30 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:09:31</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2576,7 +2850,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E42" s="3" t="n">
+      <c r="E42" s="2" t="n">
         <v>46052</v>
       </c>
       <c r="F42" t="inlineStr">
@@ -2605,8 +2879,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2627,7 +2906,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E43" s="3" t="n">
+      <c r="E43" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F43" t="inlineStr">
@@ -2656,8 +2935,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2678,7 +2962,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E44" s="3" t="n">
+      <c r="E44" s="2" t="n">
         <v>46041</v>
       </c>
       <c r="F44" t="inlineStr">
@@ -2707,8 +2991,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2729,7 +3018,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E45" s="3" t="n">
+      <c r="E45" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F45" t="inlineStr">
@@ -2758,8 +3047,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2780,7 +3074,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E46" s="3" t="n">
+      <c r="E46" s="2" t="n">
         <v>46048</v>
       </c>
       <c r="F46" t="inlineStr">
@@ -2809,8 +3103,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2831,7 +3130,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E47" s="3" t="n">
+      <c r="E47" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F47" t="inlineStr">
@@ -2860,8 +3159,13 @@
         <v>0</v>
       </c>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2882,7 +3186,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E48" s="3" t="n">
+      <c r="E48" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F48" t="inlineStr">
@@ -2911,8 +3215,13 @@
         <v>0</v>
       </c>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2933,7 +3242,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E49" s="3" t="n">
+      <c r="E49" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F49" t="inlineStr">
@@ -2962,8 +3271,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2984,7 +3298,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E50" s="3" t="n">
+      <c r="E50" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F50" t="inlineStr">
@@ -3013,8 +3327,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3035,7 +3354,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E51" s="3" t="n">
+      <c r="E51" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F51" t="inlineStr">
@@ -3055,17 +3374,30 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:07:58</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3086,7 +3418,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E52" s="3" t="n">
+      <c r="E52" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="F52" t="inlineStr">
@@ -3106,17 +3438,30 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:02:43</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3137,7 +3482,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E53" s="3" t="n">
+      <c r="E53" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F53" t="inlineStr">
@@ -3166,8 +3511,13 @@
         <v>0</v>
       </c>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3188,7 +3538,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E54" s="3" t="n">
+      <c r="E54" s="2" t="n">
         <v>46027</v>
       </c>
       <c r="F54" t="inlineStr">
@@ -3208,17 +3558,30 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3239,7 +3602,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E55" s="3" t="n">
+      <c r="E55" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F55" t="inlineStr">
@@ -3268,8 +3631,13 @@
         <v>0</v>
       </c>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3290,7 +3658,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E56" s="3" t="n">
+      <c r="E56" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="F56" t="inlineStr">
@@ -3319,8 +3687,13 @@
         <v>0</v>
       </c>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3341,7 +3714,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E57" s="3" t="n">
+      <c r="E57" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F57" t="inlineStr">
@@ -3370,8 +3743,13 @@
         <v>0</v>
       </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3392,7 +3770,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E58" s="3" t="n">
+      <c r="E58" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F58" t="inlineStr">
@@ -3412,17 +3790,30 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:04:23</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3443,7 +3834,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E59" s="3" t="n">
+      <c r="E59" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="F59" t="inlineStr">
@@ -3472,8 +3863,13 @@
         <v>0</v>
       </c>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3494,7 +3890,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E60" s="3" t="n">
+      <c r="E60" s="2" t="n">
         <v>46041</v>
       </c>
       <c r="F60" t="inlineStr">
@@ -3523,8 +3919,13 @@
         <v>0</v>
       </c>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3545,7 +3946,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n">
+      <c r="E61" s="2" t="n">
         <v>46048</v>
       </c>
       <c r="F61" t="inlineStr">
@@ -3565,17 +3966,30 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:10:09</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3596,7 +4010,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E62" s="3" t="n">
+      <c r="E62" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="F62" t="inlineStr">
@@ -3625,8 +4039,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3647,7 +4066,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E63" s="3" t="n">
+      <c r="E63" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F63" t="inlineStr">
@@ -3676,8 +4095,13 @@
         <v>0</v>
       </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3698,7 +4122,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E64" s="3" t="n">
+      <c r="E64" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F64" t="inlineStr">
@@ -3727,8 +4151,13 @@
         <v>0</v>
       </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3749,7 +4178,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E65" s="3" t="n">
+      <c r="E65" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F65" t="inlineStr">
@@ -3769,17 +4198,30 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:02:10</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3800,7 +4242,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E66" s="3" t="n">
+      <c r="E66" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="F66" t="inlineStr">
@@ -3829,8 +4271,13 @@
         <v>0</v>
       </c>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3851,7 +4298,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E67" s="3" t="n">
+      <c r="E67" s="2" t="n">
         <v>46041</v>
       </c>
       <c r="F67" t="inlineStr">
@@ -3871,17 +4318,30 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:06:56</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3902,7 +4362,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E68" s="3" t="n">
+      <c r="E68" s="2" t="n">
         <v>46048</v>
       </c>
       <c r="F68" t="inlineStr">
@@ -3931,8 +4391,13 @@
         <v>0</v>
       </c>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3953,7 +4418,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E69" s="3" t="n">
+      <c r="E69" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F69" t="inlineStr">
@@ -3982,8 +4447,13 @@
         <v>0</v>
       </c>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4004,7 +4474,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E70" s="3" t="n">
+      <c r="E70" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F70" t="inlineStr">
@@ -4033,8 +4503,13 @@
         <v>0</v>
       </c>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4055,7 +4530,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E71" s="3" t="n">
+      <c r="E71" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F71" t="inlineStr">
@@ -4084,8 +4559,13 @@
         <v>0</v>
       </c>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4106,7 +4586,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E72" s="3" t="n">
+      <c r="E72" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F72" t="inlineStr">
@@ -4126,17 +4606,30 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>0</v>
       </c>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:04:37</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4157,7 +4650,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E73" s="3" t="n">
+      <c r="E73" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F73" t="inlineStr">
@@ -4186,8 +4679,13 @@
         <v>0</v>
       </c>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4208,7 +4706,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E74" s="3" t="n">
+      <c r="E74" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F74" t="inlineStr">
@@ -4237,8 +4735,13 @@
         <v>0</v>
       </c>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4259,7 +4762,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E75" s="3" t="n">
+      <c r="E75" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="F75" t="inlineStr">
@@ -4279,17 +4782,30 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:02:56</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4310,7 +4826,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E76" s="3" t="n">
+      <c r="E76" s="2" t="n">
         <v>46038</v>
       </c>
       <c r="F76" t="inlineStr">
@@ -4330,17 +4846,30 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:06:10</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4361,7 +4890,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E77" s="3" t="n">
+      <c r="E77" s="2" t="n">
         <v>46045</v>
       </c>
       <c r="F77" t="inlineStr">
@@ -4390,8 +4919,13 @@
         <v>0</v>
       </c>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4412,7 +4946,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E78" s="3" t="n">
+      <c r="E78" s="2" t="n">
         <v>46052</v>
       </c>
       <c r="F78" t="inlineStr">
@@ -4432,17 +4966,30 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:13:39</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4463,7 +5010,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E79" s="3" t="n">
+      <c r="E79" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F79" t="inlineStr">
@@ -4492,8 +5039,13 @@
         <v>0</v>
       </c>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4514,7 +5066,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E80" s="3" t="n">
+      <c r="E80" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F80" t="inlineStr">
@@ -4543,8 +5095,13 @@
         <v>0</v>
       </c>
       <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4565,7 +5122,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E81" s="3" t="n">
+      <c r="E81" s="2" t="n">
         <v>46027</v>
       </c>
       <c r="F81" t="inlineStr">
@@ -4585,17 +5142,30 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:23</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4616,7 +5186,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E82" s="3" t="n">
+      <c r="E82" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F82" t="inlineStr">
@@ -4636,17 +5206,30 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:58:16</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4667,7 +5250,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E83" s="3" t="n">
+      <c r="E83" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F83" t="inlineStr">
@@ -4696,8 +5279,13 @@
         <v>0</v>
       </c>
       <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4718,7 +5306,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E84" s="3" t="n">
+      <c r="E84" s="2" t="n">
         <v>46028</v>
       </c>
       <c r="F84" t="inlineStr">
@@ -4747,8 +5335,13 @@
         <v>0</v>
       </c>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4769,7 +5362,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E85" s="3" t="n">
+      <c r="E85" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="F85" t="inlineStr">
@@ -4798,8 +5391,13 @@
         <v>0</v>
       </c>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4820,7 +5418,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E86" s="3" t="n">
+      <c r="E86" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="F86" t="inlineStr">
@@ -4849,8 +5447,13 @@
         <v>0</v>
       </c>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4871,7 +5474,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E87" s="3" t="n">
+      <c r="E87" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F87" t="inlineStr">
@@ -4891,17 +5494,30 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:04:52</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4922,7 +5538,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E88" s="3" t="n">
+      <c r="E88" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="F88" t="inlineStr">
@@ -4951,8 +5567,13 @@
         <v>0</v>
       </c>
       <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4973,7 +5594,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E89" s="3" t="n">
+      <c r="E89" s="2" t="n">
         <v>46041</v>
       </c>
       <c r="F89" t="inlineStr">
@@ -4993,17 +5614,30 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:07:09</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5024,7 +5658,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E90" s="3" t="n">
+      <c r="E90" s="2" t="n">
         <v>46042</v>
       </c>
       <c r="F90" t="inlineStr">
@@ -5044,17 +5678,30 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:07:21</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5075,7 +5722,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E91" s="3" t="n">
+      <c r="E91" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F91" t="inlineStr">
@@ -5095,17 +5742,30 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>0</v>
       </c>
       <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:24:32</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5126,7 +5786,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E92" s="3" t="n">
+      <c r="E92" s="2" t="n">
         <v>46044</v>
       </c>
       <c r="F92" t="inlineStr">
@@ -5146,17 +5806,30 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>0</v>
       </c>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:08:40</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5177,7 +5850,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E93" s="3" t="n">
+      <c r="E93" s="2" t="n">
         <v>46048</v>
       </c>
       <c r="F93" t="inlineStr">
@@ -5197,17 +5870,30 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:10:20</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5228,7 +5914,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E94" s="3" t="n">
+      <c r="E94" s="2" t="n">
         <v>46049</v>
       </c>
       <c r="F94" t="inlineStr">
@@ -5248,17 +5934,30 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>0</v>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:10:53</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5279,7 +5978,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E95" s="3" t="n">
+      <c r="E95" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F95" t="inlineStr">
@@ -5308,8 +6007,13 @@
         <v>0</v>
       </c>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5330,7 +6034,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E96" s="3" t="n">
+      <c r="E96" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F96" t="inlineStr">
@@ -5359,8 +6063,13 @@
         <v>0</v>
       </c>
       <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5381,7 +6090,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E97" s="3" t="n">
+      <c r="E97" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F97" t="inlineStr">
@@ -5410,8 +6119,13 @@
         <v>0</v>
       </c>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5432,7 +6146,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E98" s="3" t="n">
+      <c r="E98" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F98" t="inlineStr">
@@ -5452,17 +6166,30 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>0</v>
       </c>
       <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:11:09</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5483,7 +6210,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E99" s="3" t="n">
+      <c r="E99" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F99" t="inlineStr">
@@ -5503,17 +6230,30 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:12:02</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5534,7 +6274,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E100" s="3" t="n">
+      <c r="E100" s="2" t="n">
         <v>46051</v>
       </c>
       <c r="F100" t="inlineStr">
@@ -5554,17 +6294,30 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>0</v>
       </c>
       <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:13:12</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5585,7 +6338,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E101" s="3" t="n">
+      <c r="E101" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="F101" t="inlineStr">
@@ -5614,8 +6367,13 @@
         <v>0</v>
       </c>
       <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5636,7 +6394,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E102" s="3" t="n">
+      <c r="E102" s="2" t="n">
         <v>46038</v>
       </c>
       <c r="F102" t="inlineStr">
@@ -5656,17 +6414,30 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>0</v>
       </c>
       <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:06:27</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5687,7 +6458,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E103" s="3" t="n">
+      <c r="E103" s="2" t="n">
         <v>46045</v>
       </c>
       <c r="F103" t="inlineStr">
@@ -5716,8 +6487,13 @@
         <v>0</v>
       </c>
       <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5738,7 +6514,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E104" s="3" t="n">
+      <c r="E104" s="2" t="n">
         <v>46052</v>
       </c>
       <c r="F104" t="inlineStr">
@@ -5758,17 +6534,30 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>0</v>
       </c>
       <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:13:25</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5789,7 +6578,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E105" s="3" t="n">
+      <c r="E105" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="F105" t="inlineStr">
@@ -5818,8 +6607,13 @@
         <v>0</v>
       </c>
       <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5840,7 +6634,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E106" s="3" t="n">
+      <c r="E106" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F106" t="inlineStr">
@@ -5860,17 +6654,30 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>0</v>
       </c>
       <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:57:49</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5891,7 +6698,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E107" s="3" t="n">
+      <c r="E107" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F107" t="inlineStr">
@@ -5920,8 +6727,13 @@
         <v>0</v>
       </c>
       <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5942,7 +6754,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E108" s="3" t="n">
+      <c r="E108" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F108" t="inlineStr">
@@ -5971,8 +6783,13 @@
         <v>0</v>
       </c>
       <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5993,7 +6810,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E109" s="3" t="n">
+      <c r="E109" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F109" t="inlineStr">
@@ -6022,8 +6839,13 @@
         <v>0</v>
       </c>
       <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6044,7 +6866,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E110" s="3" t="n">
+      <c r="E110" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F110" t="inlineStr">
@@ -6073,8 +6895,13 @@
         <v>0</v>
       </c>
       <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6095,7 +6922,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E111" s="3" t="n">
+      <c r="E111" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F111" t="inlineStr">
@@ -6124,8 +6951,13 @@
         <v>0</v>
       </c>
       <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6146,7 +6978,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E112" s="3" t="n">
+      <c r="E112" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F112" t="inlineStr">
@@ -6166,17 +6998,30 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>0</v>
       </c>
       <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:02:28</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6197,7 +7042,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E113" s="3" t="n">
+      <c r="E113" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="F113" t="inlineStr">
@@ -6217,17 +7062,30 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>0</v>
       </c>
       <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:05:14</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6248,7 +7106,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E114" s="3" t="n">
+      <c r="E114" s="2" t="n">
         <v>46045</v>
       </c>
       <c r="F114" t="inlineStr">
@@ -6277,8 +7135,13 @@
         <v>0</v>
       </c>
       <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6299,7 +7162,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E115" s="3" t="n">
+      <c r="E115" s="2" t="n">
         <v>46044</v>
       </c>
       <c r="F115" t="inlineStr">
@@ -6319,17 +7182,30 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>0</v>
       </c>
       <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:09:01</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6350,7 +7226,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E116" s="3" t="n">
+      <c r="E116" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F116" t="inlineStr">
@@ -6379,8 +7255,13 @@
         <v>0</v>
       </c>
       <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6401,7 +7282,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E117" s="3" t="n">
+      <c r="E117" s="2" t="n">
         <v>46028</v>
       </c>
       <c r="F117" t="inlineStr">
@@ -6421,17 +7302,30 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>0</v>
       </c>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:37</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6452,7 +7346,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E118" s="3" t="n">
+      <c r="E118" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="F118" t="inlineStr">
@@ -6481,8 +7375,13 @@
         <v>0</v>
       </c>
       <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6503,7 +7402,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E119" s="3" t="n">
+      <c r="E119" s="2" t="n">
         <v>46038</v>
       </c>
       <c r="F119" t="inlineStr">
@@ -6532,8 +7431,13 @@
         <v>0</v>
       </c>
       <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6554,7 +7458,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E120" s="3" t="n">
+      <c r="E120" s="2" t="n">
         <v>46052</v>
       </c>
       <c r="F120" t="inlineStr">
@@ -6583,8 +7487,13 @@
         <v>0</v>
       </c>
       <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6605,7 +7514,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E121" s="3" t="n">
+      <c r="E121" s="2" t="n">
         <v>46045</v>
       </c>
       <c r="F121" t="inlineStr">
@@ -6625,17 +7534,30 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>0</v>
       </c>
       <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:09:50</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6656,7 +7578,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E122" s="3" t="n">
+      <c r="E122" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="F122" t="inlineStr">
@@ -6685,8 +7607,13 @@
         <v>0</v>
       </c>
       <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6707,7 +7634,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E123" s="3" t="n">
+      <c r="E123" s="2" t="n">
         <v>46044</v>
       </c>
       <c r="F123" t="inlineStr">
@@ -6736,8 +7663,13 @@
         <v>0</v>
       </c>
       <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6758,7 +7690,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E124" s="3" t="n">
+      <c r="E124" s="2" t="n">
         <v>46051</v>
       </c>
       <c r="F124" t="inlineStr">
@@ -6778,17 +7710,30 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>0</v>
       </c>
       <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:12:40</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6809,7 +7754,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E125" s="3" t="n">
+      <c r="E125" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F125" t="inlineStr">
@@ -6838,8 +7783,13 @@
         <v>0</v>
       </c>
       <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6860,7 +7810,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E126" s="3" t="n">
+      <c r="E126" s="2" t="n">
         <v>46028</v>
       </c>
       <c r="F126" t="inlineStr">
@@ -6889,8 +7839,13 @@
         <v>0</v>
       </c>
       <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6911,7 +7866,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E127" s="3" t="n">
+      <c r="E127" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="F127" t="inlineStr">
@@ -6931,17 +7886,30 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>0</v>
       </c>
       <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:04:08</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6962,7 +7930,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E128" s="3" t="n">
+      <c r="E128" s="2" t="n">
         <v>46042</v>
       </c>
       <c r="F128" t="inlineStr">
@@ -6991,8 +7959,13 @@
         <v>0</v>
       </c>
       <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7013,7 +7986,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E129" s="3" t="n">
+      <c r="E129" s="2" t="n">
         <v>46049</v>
       </c>
       <c r="F129" t="inlineStr">
@@ -7042,8 +8015,13 @@
         <v>0</v>
       </c>
       <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7064,7 +8042,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E130" s="3" t="n">
+      <c r="E130" s="2" t="n">
         <v>46048</v>
       </c>
       <c r="F130" t="inlineStr">
@@ -7093,8 +8071,13 @@
         <v>0</v>
       </c>
       <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7115,7 +8098,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E131" s="3" t="n">
+      <c r="E131" s="2" t="n">
         <v>46041</v>
       </c>
       <c r="F131" t="inlineStr">
@@ -7144,8 +8127,13 @@
         <v>0</v>
       </c>
       <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7166,7 +8154,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E132" s="3" t="n">
+      <c r="E132" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="F132" t="inlineStr">
@@ -7186,17 +8174,30 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>0</v>
       </c>
       <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:03:51</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7217,7 +8218,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E133" s="3" t="n">
+      <c r="E133" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F133" t="inlineStr">
@@ -7246,8 +8247,13 @@
         <v>0</v>
       </c>
       <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7268,7 +8274,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E134" s="3" t="n">
+      <c r="E134" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F134" t="inlineStr">
@@ -7297,8 +8303,13 @@
         <v>0</v>
       </c>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7319,7 +8330,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E135" s="3" t="n">
+      <c r="E135" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F135" t="inlineStr">
@@ -7339,17 +8350,30 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>0</v>
       </c>
       <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:08:12</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7370,7 +8394,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E136" s="3" t="n">
+      <c r="E136" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F136" t="inlineStr">
@@ -7399,8 +8423,13 @@
         <v>0</v>
       </c>
       <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7421,7 +8450,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E137" s="3" t="n">
+      <c r="E137" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F137" t="inlineStr">
@@ -7450,8 +8479,13 @@
         <v>0</v>
       </c>
       <c r="M137" t="inlineStr"/>
-      <c r="N137" t="inlineStr"/>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7472,7 +8506,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E138" s="3" t="n">
+      <c r="E138" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F138" t="inlineStr">
@@ -7501,8 +8535,13 @@
         <v>0</v>
       </c>
       <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7523,7 +8562,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E139" s="3" t="n">
+      <c r="E139" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="F139" t="inlineStr">
@@ -7552,8 +8591,13 @@
         <v>0</v>
       </c>
       <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7574,7 +8618,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E140" s="3" t="n">
+      <c r="E140" s="2" t="n">
         <v>46042</v>
       </c>
       <c r="F140" t="inlineStr">
@@ -7594,17 +8638,30 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>0</v>
       </c>
       <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:25:18</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7625,7 +8682,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E141" s="3" t="n">
+      <c r="E141" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F141" t="inlineStr">
@@ -7654,8 +8711,13 @@
         <v>0</v>
       </c>
       <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7676,7 +8738,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E142" s="3" t="n">
+      <c r="E142" s="2" t="n">
         <v>46049</v>
       </c>
       <c r="F142" t="inlineStr">
@@ -7705,8 +8767,13 @@
         <v>0</v>
       </c>
       <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7727,7 +8794,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E143" s="3" t="n">
+      <c r="E143" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F143" t="inlineStr">
@@ -7756,8 +8823,13 @@
         <v>0</v>
       </c>
       <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7778,7 +8850,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E144" s="3" t="n">
+      <c r="E144" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F144" t="inlineStr">
@@ -7807,8 +8879,13 @@
         <v>0</v>
       </c>
       <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7829,7 +8906,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E145" s="3" t="n">
+      <c r="E145" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F145" t="inlineStr">
@@ -7858,8 +8935,13 @@
         <v>0</v>
       </c>
       <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7880,7 +8962,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E146" s="3" t="n">
+      <c r="E146" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F146" t="inlineStr">
@@ -7909,8 +8991,13 @@
         <v>0</v>
       </c>
       <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7931,7 +9018,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E147" s="3" t="n">
+      <c r="E147" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F147" t="inlineStr">
@@ -7951,17 +9038,30 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>0</v>
       </c>
       <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:58:39</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7982,7 +9082,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E148" s="3" t="n">
+      <c r="E148" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F148" t="inlineStr">
@@ -8002,17 +9102,30 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>0</v>
       </c>
       <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:01:45</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8033,7 +9146,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E149" s="3" t="n">
+      <c r="E149" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="F149" t="inlineStr">
@@ -8053,17 +9166,30 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>0</v>
       </c>
       <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:05:57</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8084,7 +9210,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E150" s="3" t="n">
+      <c r="E150" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F150" t="inlineStr">
@@ -8113,8 +9239,13 @@
         <v>0</v>
       </c>
       <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8135,7 +9266,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E151" s="3" t="n">
+      <c r="E151" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F151" t="inlineStr">
@@ -8164,8 +9295,13 @@
         <v>0</v>
       </c>
       <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8186,7 +9322,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E152" s="3" t="n">
+      <c r="E152" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="F152" t="inlineStr">
@@ -8215,8 +9351,13 @@
         <v>0</v>
       </c>
       <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8237,7 +9378,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E153" s="3" t="n">
+      <c r="E153" s="2" t="n">
         <v>46044</v>
       </c>
       <c r="F153" t="inlineStr">
@@ -8257,17 +9398,30 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>0</v>
       </c>
       <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:09:14</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8288,7 +9442,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E154" s="3" t="n">
+      <c r="E154" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F154" t="inlineStr">
@@ -8317,8 +9471,13 @@
         <v>0</v>
       </c>
       <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8339,7 +9498,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E155" s="3" t="n">
+      <c r="E155" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F155" t="inlineStr">
@@ -8368,8 +9527,13 @@
         <v>0</v>
       </c>
       <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8390,7 +9554,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E156" s="3" t="n">
+      <c r="E156" s="2" t="n">
         <v>46051</v>
       </c>
       <c r="F156" t="inlineStr">
@@ -8410,17 +9574,30 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>0</v>
       </c>
       <c r="M156" t="inlineStr"/>
-      <c r="N156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:12:26</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8441,7 +9618,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E157" s="3" t="n">
+      <c r="E157" s="2" t="n">
         <v>46028</v>
       </c>
       <c r="F157" t="inlineStr">
@@ -8470,8 +9647,13 @@
         <v>0</v>
       </c>
       <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8492,7 +9674,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E158" s="3" t="n">
+      <c r="E158" s="2" t="n">
         <v>46041</v>
       </c>
       <c r="F158" t="inlineStr">
@@ -8521,8 +9703,13 @@
         <v>0</v>
       </c>
       <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8543,7 +9730,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E159" s="3" t="n">
+      <c r="E159" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F159" t="inlineStr">
@@ -8563,17 +9750,30 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>0</v>
       </c>
       <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:11:33</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8594,7 +9794,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E160" s="3" t="n">
+      <c r="E160" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F160" t="inlineStr">
@@ -8623,8 +9823,13 @@
         <v>0</v>
       </c>
       <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8645,7 +9850,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E161" s="3" t="n">
+      <c r="E161" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F161" t="inlineStr">
@@ -8674,8 +9879,13 @@
         <v>0</v>
       </c>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8696,7 +9906,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E162" s="3" t="n">
+      <c r="E162" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F162" t="inlineStr">
@@ -8725,8 +9935,13 @@
         <v>0</v>
       </c>
       <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8747,7 +9962,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E163" s="3" t="n">
+      <c r="E163" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="F163" t="inlineStr">
@@ -8776,8 +9991,13 @@
         <v>0</v>
       </c>
       <c r="M163" t="inlineStr"/>
-      <c r="N163" t="inlineStr"/>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8798,7 +10018,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E164" s="3" t="n">
+      <c r="E164" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="F164" t="inlineStr">
@@ -8827,8 +10047,13 @@
         <v>0</v>
       </c>
       <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8849,7 +10074,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E165" s="3" t="n">
+      <c r="E165" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F165" t="inlineStr">
@@ -8878,8 +10103,13 @@
         <v>0</v>
       </c>
       <c r="M165" t="inlineStr"/>
-      <c r="N165" t="inlineStr"/>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8900,7 +10130,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E166" s="3" t="n">
+      <c r="E166" s="2" t="n">
         <v>46037</v>
       </c>
       <c r="F166" t="inlineStr">
@@ -8920,17 +10150,30 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>0</v>
       </c>
       <c r="M166" t="inlineStr"/>
-      <c r="N166" t="inlineStr"/>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:05:31</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8951,7 +10194,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E167" s="3" t="n">
+      <c r="E167" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F167" t="inlineStr">
@@ -8980,8 +10223,13 @@
         <v>0</v>
       </c>
       <c r="M167" t="inlineStr"/>
-      <c r="N167" t="inlineStr"/>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9002,7 +10250,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E168" s="3" t="n">
+      <c r="E168" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F168" t="inlineStr">
@@ -9031,8 +10279,13 @@
         <v>0</v>
       </c>
       <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9053,7 +10306,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E169" s="3" t="n">
+      <c r="E169" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F169" t="inlineStr">
@@ -9082,8 +10335,13 @@
         <v>0</v>
       </c>
       <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9106,7 +10364,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E170" s="3" t="n">
+      <c r="E170" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="F170" t="inlineStr">
@@ -9116,27 +10374,44 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Afternoon</t>
+          <t>afternoon</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>l4</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>0</v>
       </c>
       <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr"/>
-      <c r="O170" t="inlineStr"/>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:24:15</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:24:15</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9159,7 +10434,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E171" s="3" t="n">
+      <c r="E171" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="F171" t="inlineStr">
@@ -9169,27 +10444,40 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>night</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>l4</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>0</v>
       </c>
       <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:05:04</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9212,7 +10500,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E172" s="3" t="n">
+      <c r="E172" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="F172" t="inlineStr">
@@ -9222,27 +10510,40 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>night</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>l4</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>0</v>
       </c>
       <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr"/>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
       <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:11:44</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9265,7 +10566,7 @@
           <t>2026-01</t>
         </is>
       </c>
-      <c r="E173" s="3" t="n">
+      <c r="E173" s="2" t="n">
         <v>46050</v>
       </c>
       <c r="F173" t="inlineStr">
@@ -9275,27 +10576,44 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Night</t>
+          <t>night</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>L4</t>
+          <t>l4</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>0</v>
       </c>
       <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>2026-01-02 23:55:14</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>2026-01-03 00:25:55</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/shift_application.xlsx
+++ b/data/shift_application.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P181"/>
+  <dimension ref="A1:P187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2886,15 +2886,19 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>cancel</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>cancel</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>quiz, found replacement Nathan</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
@@ -2904,7 +2908,11 @@
           <t>2026-01-02 23:55:14</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2026-01-16 05:59:18</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>2026-01-03 00:09:31</t>
@@ -5872,12 +5880,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5890,7 +5898,11 @@
           <t>2026-01-02 23:55:14</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>2026-01-18 01:03:29</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
           <t>2026-01-03 00:07:21</t>
@@ -6776,12 +6788,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>approved</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>approved</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -6796,7 +6808,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2026-01-07 10:12:50</t>
+          <t>2026-01-18 01:04:19</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
@@ -10862,12 +10874,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>approved</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="K171" t="inlineStr"/>
@@ -10882,7 +10894,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2026-01-07 10:12:17</t>
+          <t>2026-01-18 01:04:06</t>
         </is>
       </c>
       <c r="P171" t="inlineStr"/>
@@ -11474,6 +11486,386 @@
         </is>
       </c>
       <c r="P181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2026-01-16 06:00:17</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2400573</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>NATHAN KONG YAN WEI</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>replace Fedora</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>2026-01-16 06:01:32</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2026-01-17 04:02:40</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2003284</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>LENG HONGJIE, EVANDER LENG</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2026-01</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>46042</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>2026-01-18 01:03:52</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2026-01-25 08:20:44</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>46056</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>2026-01-26 12:09:32</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2026-01-25 08:21:09</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2026-01-25 08:21:20</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>46058</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2026-01-25 08:21:47</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2301451</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>WANG CONGYING WANG</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>afternoon</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>l4</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
